--- a/ID3_bagging_nonImput_hasil_akhir_2.xlsx
+++ b/ID3_bagging_nonImput_hasil_akhir_2.xlsx
@@ -512,46 +512,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>67.19</v>
+        <v>65.23999999999999</v>
       </c>
       <c r="C2" t="n">
-        <v>67.72</v>
+        <v>65.64</v>
       </c>
       <c r="D2" t="n">
-        <v>68.5</v>
+        <v>66.8</v>
       </c>
       <c r="E2" t="n">
+        <v>67.33</v>
+      </c>
+      <c r="F2" t="n">
+        <v>66.02</v>
+      </c>
+      <c r="G2" t="n">
+        <v>68.76000000000001</v>
+      </c>
+      <c r="H2" t="n">
         <v>67.84999999999999</v>
       </c>
-      <c r="F2" t="n">
-        <v>67.2</v>
-      </c>
-      <c r="G2" t="n">
-        <v>65.90000000000001</v>
-      </c>
-      <c r="H2" t="n">
-        <v>67.06</v>
-      </c>
       <c r="I2" t="n">
-        <v>67.59</v>
+        <v>67.70999999999999</v>
       </c>
       <c r="J2" t="n">
         <v>67.45999999999999</v>
       </c>
       <c r="K2" t="n">
+        <v>67.33</v>
+      </c>
+      <c r="L2" t="n">
+        <v>66.94</v>
+      </c>
+      <c r="M2" t="n">
+        <v>68.23999999999999</v>
+      </c>
+      <c r="N2" t="n">
+        <v>67.31999999999999</v>
+      </c>
+      <c r="O2" t="n">
         <v>67.06</v>
-      </c>
-      <c r="L2" t="n">
-        <v>67.84999999999999</v>
-      </c>
-      <c r="M2" t="n">
-        <v>68.23</v>
-      </c>
-      <c r="N2" t="n">
-        <v>66.67</v>
-      </c>
-      <c r="O2" t="n">
-        <v>67.19</v>
       </c>
     </row>
     <row r="3">
@@ -561,46 +561,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>58.01</v>
+        <v>50.3</v>
       </c>
       <c r="C3" t="n">
-        <v>59.5</v>
+        <v>52.16</v>
       </c>
       <c r="D3" t="n">
-        <v>67</v>
+        <v>57.2</v>
       </c>
       <c r="E3" t="n">
-        <v>63.56</v>
+        <v>58.02</v>
       </c>
       <c r="F3" t="n">
-        <v>59.49</v>
+        <v>54.66</v>
       </c>
       <c r="G3" t="n">
-        <v>52.74</v>
+        <v>63.65</v>
       </c>
       <c r="H3" t="n">
-        <v>57.6</v>
+        <v>60.61</v>
       </c>
       <c r="I3" t="n">
-        <v>61.07</v>
+        <v>62.3</v>
       </c>
       <c r="J3" t="n">
-        <v>62.32</v>
+        <v>58.14</v>
       </c>
       <c r="K3" t="n">
-        <v>59.87</v>
+        <v>59.34</v>
       </c>
       <c r="L3" t="n">
-        <v>61.11</v>
+        <v>60.44</v>
       </c>
       <c r="M3" t="n">
-        <v>63.75</v>
+        <v>64.92</v>
       </c>
       <c r="N3" t="n">
-        <v>56.53</v>
+        <v>61.32</v>
       </c>
       <c r="O3" t="n">
-        <v>58.53</v>
+        <v>61.82</v>
       </c>
     </row>
     <row r="4">
@@ -610,46 +610,46 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>22.42</v>
+      </c>
+      <c r="C4" t="n">
+        <v>20.57</v>
+      </c>
+      <c r="D4" t="n">
+        <v>20.18</v>
+      </c>
+      <c r="E4" t="n">
+        <v>21.69</v>
+      </c>
+      <c r="F4" t="n">
+        <v>19.46</v>
+      </c>
+      <c r="G4" t="n">
         <v>24.29</v>
       </c>
-      <c r="C4" t="n">
-        <v>21.35</v>
-      </c>
-      <c r="D4" t="n">
-        <v>23.15</v>
-      </c>
-      <c r="E4" t="n">
+      <c r="H4" t="n">
         <v>22.44</v>
       </c>
-      <c r="F4" t="n">
-        <v>22.02</v>
-      </c>
-      <c r="G4" t="n">
-        <v>21.34</v>
-      </c>
-      <c r="H4" t="n">
+      <c r="I4" t="n">
+        <v>22.41</v>
+      </c>
+      <c r="J4" t="n">
+        <v>22.44</v>
+      </c>
+      <c r="K4" t="n">
+        <v>20.54</v>
+      </c>
+      <c r="L4" t="n">
+        <v>20.18</v>
+      </c>
+      <c r="M4" t="n">
+        <v>23.13</v>
+      </c>
+      <c r="N4" t="n">
         <v>22.42</v>
       </c>
-      <c r="I4" t="n">
-        <v>21.69</v>
-      </c>
-      <c r="J4" t="n">
-        <v>22.42</v>
-      </c>
-      <c r="K4" t="n">
-        <v>20.57</v>
-      </c>
-      <c r="L4" t="n">
-        <v>22.81</v>
-      </c>
-      <c r="M4" t="n">
-        <v>23.89</v>
-      </c>
-      <c r="N4" t="n">
-        <v>21.3</v>
-      </c>
       <c r="O4" t="n">
-        <v>22.41</v>
+        <v>20.54</v>
       </c>
     </row>
   </sheetData>
